--- a/data/Corral.xlsx
+++ b/data/Corral.xlsx
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">

--- a/data/Corral.xlsx
+++ b/data/Corral.xlsx
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F48" t="n">

--- a/data/Corral.xlsx
+++ b/data/Corral.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,6 +2958,94 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>XXXXXXXXXXXXXXX</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129483581&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Corral</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130704841&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Corral</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Corral.xlsx
+++ b/data/Corral.xlsx
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">

--- a/data/Corral.xlsx
+++ b/data/Corral.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
